--- a/Data Source/Budget.xlsx
+++ b/Data Source/Budget.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B7B14C76-475D-4A23-A64E-EED0322B89B6}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D2A4D7A9-E79C-4072-9C6A-295DDBA4B512}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="12">
   <si>
     <t>Project</t>
   </si>
@@ -88,12 +88,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,10 +127,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -394,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5302D9F1-76DC-4B16-B8A7-F697582DA136}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,427 +448,1277 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1345006</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B2" s="1">
         <v>3000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>1101</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
         <v>158668.79999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1345006</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B3" s="1">
         <v>3000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1102</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
         <v>222136.32000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1345006</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B4" s="1">
         <v>3000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>1105</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
         <v>253870.07999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1345006</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B5" s="1">
         <v>4000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1101</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
         <v>281503.64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1345006</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B6" s="1">
         <v>4000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1102</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
         <v>394105.09599999984</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1345006</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B7" s="1">
         <v>4000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>1105</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
         <v>450405.82400000014</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1345006</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B8" s="1">
         <v>5000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1101</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
         <v>28224</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1345006</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B9" s="1">
         <v>5000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1102</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
         <v>39513.599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1345006</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B10" s="1">
         <v>5000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1105</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
         <v>45158.400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1345006</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="A11" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="2">
         <v>1101</v>
       </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
         <v>9600</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1345006</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="2">
         <v>1102</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
         <v>13440</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1345006</v>
-      </c>
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="A13" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="2">
         <v>1105</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
         <v>15360</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1345006</v>
-      </c>
-      <c r="B14">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="A14" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>29568</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1345006</v>
-      </c>
-      <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="A15" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>120768</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1345006</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B16" s="1">
         <v>2000</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>1101</v>
       </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
         <v>41520</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1345006</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B17" s="1">
         <v>2000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>1102</v>
       </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
         <v>58128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1345006</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B18" s="1">
         <v>2000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>1105</v>
       </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
         <v>66432</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1345006</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B19" s="1">
         <v>2000</v>
       </c>
-      <c r="C19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>28800</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1345006</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B20" s="1">
         <v>6000</v>
       </c>
-      <c r="C20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>471728.52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1345006</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B21" s="1">
         <v>5000</v>
       </c>
-      <c r="C21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>28800</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1345006</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B22" s="1">
         <v>7000</v>
       </c>
-      <c r="C22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>582182.40000000002</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1345006</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B23" s="1">
         <v>7000</v>
       </c>
-      <c r="C23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>204288</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1345006</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B24" s="1">
         <v>8000</v>
       </c>
-      <c r="C24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>61543.78</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1345006</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B25" s="1">
         <v>500</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>1200</v>
       </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1345006</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="1">
+        <v>1345006</v>
+      </c>
+      <c r="B26" s="1">
         <v>600</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>2000</v>
       </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1101</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>158668.79999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1102</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>222136.32000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1105</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>253870.07999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1101</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>281503.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1102</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>394105.09599999984</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4000</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1105</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>450405.82400000014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1101</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4">
+        <v>28224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1102</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>39513.599999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1105</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>45158.400000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1101</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1102</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1105</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4">
+        <v>15360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4">
+        <v>29568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
+        <v>120768</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1101</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>41520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1102</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>58128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1105</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4">
+        <v>66432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6000</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="4">
+        <v>471728.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B46" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B47" s="4">
+        <v>7000</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>582182.40000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B48" s="4">
+        <v>7000</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="4">
+        <v>204288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B49" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="4">
+        <v>61543.78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B50" s="4">
+        <v>500</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="6">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>1345007</v>
+      </c>
+      <c r="B51" s="4">
+        <v>600</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="6">
+        <v>-5000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B52" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1101</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="7">
+        <v>158668.79999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B53" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1102</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="7">
+        <v>222136.32000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B54" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1105</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="7">
+        <v>253870.07999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1101</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="7">
+        <v>281503.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B56" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1102</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="7">
+        <v>394105.09599999984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B57" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1105</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="7">
+        <v>450405.82400000014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B58" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1101</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="7">
+        <v>28224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B59" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1102</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="7">
+        <v>39513.599999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B60" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1105</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45158.400000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1101</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="7">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1102</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C63" s="8">
+        <v>1105</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="7">
+        <v>15360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="7">
+        <v>29568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B65" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C65" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="7">
+        <v>120768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B66" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1101</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="7">
+        <v>41520</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C67" s="8">
+        <v>1102</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="7">
+        <v>58128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B68" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C68" s="8">
+        <v>1105</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="7">
+        <v>66432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="7">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B70" s="7">
+        <v>6000</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="7">
+        <v>471728.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B71" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C71" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="7">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B72" s="7">
+        <v>7000</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="7">
+        <v>582182.40000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B73" s="7">
+        <v>7000</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="7">
+        <v>204288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B74" s="7">
+        <v>8000</v>
+      </c>
+      <c r="C74" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="7">
+        <v>61543.78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B75" s="7">
+        <v>500</v>
+      </c>
+      <c r="C75" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>1345008</v>
+      </c>
+      <c r="B76" s="7">
+        <v>600</v>
+      </c>
+      <c r="C76" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="9">
         <v>-5000000</v>
       </c>
     </row>
